--- a/xlsx/财经文摘_intext.xlsx
+++ b/xlsx/财经文摘_intext.xlsx
@@ -29,13 +29,13 @@
     <t>香港</t>
   </si>
   <si>
-    <t>政策_政策_財經_财经文摘</t>
+    <t>政策_政策_财经_财经文摘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>財經</t>
+    <t>财经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E5%BF%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>香港媒體</t>
+    <t>香港媒体</t>
   </si>
 </sst>
 </file>
